--- a/CRDMA/docs/test_cases/packages/CCDP/verification_templates/category_2_CRDMA_DVM_verification.xlsx
+++ b/CRDMA/docs/test_cases/packages/CCDP/verification_templates/category_2_CRDMA_DVM_verification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse.Abdul\Documents\Version Control\Git\centralized-cruise-database\CRDMA\docs\test_cases\packages\CCDP\verification_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse.abdul\Documents\Version Control\Git\centralized-cruise-database\CRDMA\docs\test_cases\packages\CCDP\verification_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1755,7 +1755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:G48"/>
     </sheetView>
   </sheetViews>
@@ -2860,7 +2860,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
